--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R204_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R204_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +472,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +519,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +565,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -911,10 +935,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -958,28 +982,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1004,28 +1028,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1287,10 +1311,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1334,28 +1358,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1380,28 +1404,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1518,10 +1542,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1565,28 +1589,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1611,28 +1635,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1778,10 +1802,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="J57" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="K57" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1825,28 +1849,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1871,28 +1895,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2270,10 +2294,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K74" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2317,28 +2341,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2363,28 +2387,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2617,10 +2641,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
+      <c r="J86" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K86" s="2" t="s">
+      <c r="K86" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2664,28 +2688,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2710,28 +2734,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3022,10 +3046,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
+      <c r="J100" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="K100" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3069,28 +3093,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3115,28 +3139,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3601,10 +3625,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
+      <c r="J120" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K120" s="2" t="s">
+      <c r="K120" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3648,28 +3672,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3694,28 +3718,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3919,10 +3943,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
+      <c r="J131" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K131" s="2" t="s">
+      <c r="K131" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3966,28 +3990,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4012,28 +4036,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4266,10 +4290,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
+      <c r="J143" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K143" s="2" t="s">
+      <c r="K143" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4313,28 +4337,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4359,28 +4383,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4671,10 +4695,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
+      <c r="J157" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K157" s="2" t="s">
+      <c r="K157" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4718,28 +4742,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4764,28 +4788,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4931,10 +4955,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
+      <c r="J166" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="2" t="s">
+      <c r="K166" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
